--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否已实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,7 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回URL（jsp地址）</t>
+    <t>完成进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL（view）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,12 +147,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -161,6 +158,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,112 +470,124 @@
   <dimension ref="A1:T212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S5" s="4"/>
-      <c r="T5" s="4" t="s">
+      <c r="R5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S6" s="4"/>
-      <c r="T6" s="4" t="s">
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S7" s="3" t="s">
-        <v>10</v>
+      <c r="S7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S8" s="3" t="s">
-        <v>11</v>
+      <c r="S8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -784,8 +799,8 @@
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F214:F1048576">
       <formula1>$S$3:$S$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G3:G1048576">
@@ -793,6 +808,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
       <formula1>$S$7:$S$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F213">
+      <formula1>$R$3:$R$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,18 +26,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郑理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>丁敬力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +71,25 @@
   </si>
   <si>
     <t>返回URL（view）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>pageInfo date:List&lt;Class&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calssNo、major、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/bas/class/list'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/bas/class/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,10 +171,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,16 +481,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T212"/>
+  <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
@@ -486,44 +500,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
@@ -541,55 +555,60 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R3" s="5">
-        <v>0.3</v>
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.6</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R4" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="R4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R5" s="5">
-        <v>0.8</v>
+      <c r="R5" s="4">
+        <v>1</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R6" s="5">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -793,24 +812,23 @@
     <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F214:F1048576">
-      <formula1>$S$3:$S$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F213:F1048576 F1">
+      <formula1>$S$3:$S$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
+      <formula1>$S$6:$S$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G3:G1048576">
-      <formula1>$T$3:$T$6</formula1>
+      <formula1>$T$3:$T$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
-      <formula1>$S$7:$S$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F213">
-      <formula1>$R$3:$R$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F212">
+      <formula1>$R$3:$R$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,19 +77,105 @@
     <t>POST</t>
   </si>
   <si>
-    <t>pageInfo date:List&lt;Class&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calssNo、major、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/bas/class/list'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/bas/class/list</t>
+    <t>功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/experimentpaper/myexperimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的实验课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentNo/experimentName/courseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageInfo data:List&lt;Report&gt;/courseList&lt;Course&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/experimentpaper/myexperimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超链接student_left.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;td&gt;${item.sn}&lt;/td&gt;
+                                                        &lt;td&gt;${item.name}&lt;/td&gt;
+                                                        &lt;td&gt;${item.director}&lt;/td&gt;
+                                                        &lt;td&gt;${item.style}&lt;/td&gt;
+                                                        &lt;td&gt;${item.reportName}&lt;/td&gt;
+                                                        &lt;td&gt;${item.detail}&lt;/td&gt;
+                                                        &lt;td&gt;&lt;a href="paperinfo?id=${item.id}"&gt;查看实验&lt;/a&gt;&lt;/td&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;c:forEach items="${courseList}" var="item"&gt;
+    &lt;option value="${item.id}"&gt;${item.name}&lt;/option&gt;
+&lt;/c:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看实验课详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/experimentpaper/paperinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;c:forEach items="${pageInfo.data}" var="item"&gt;
+                                                &lt;tr bgcolor="#ffffff" align="center" class="STYLE19"&gt;
+                                                    &lt;td height="20"&gt;&lt;input name="idcheckbox" type="checkbox"
+                                                                           value="${item.id}" onclick="checkOne('listForm', 'idcheckbox')"/&gt;
+                                                    &lt;/td&gt;
+                                                    &lt;td&gt;${item.id}&lt;/td&gt;
+                                                    &lt;td&gt;${item.sn}&lt;/td&gt;
+                                                    &lt;td&gt;${item.name}&lt;/td&gt;
+                                                    &lt;td&gt;${item.phoneNum}&lt;/td&gt;
+                                                    &lt;td&gt;${item.email}&lt;/td&gt;
+                                                    &lt;td&gt;${item.major.name}&lt;/td&gt;
+                                                    &lt;td&gt;${item.role.name}&lt;/td&gt;
+                                                    &lt;td&gt;${item.comment}&lt;/td&gt;
+                                                &lt;/tr&gt;
+                                            &lt;/c:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/experimentpaper/paperinfo?id=${item.id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,11 +260,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,142 +567,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T211"/>
+  <dimension ref="A1:Y211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="59.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="65.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="W3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>3</v>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R4" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
-        <v>4</v>
+    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R5" s="4">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
-        <v>5</v>
+    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -814,21 +972,21 @@
     <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F213:F1048576 F1">
-      <formula1>$S$3:$S$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K213:K1048576 K1">
+      <formula1>$X$3:$X$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
-      <formula1>$S$6:$S$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1 E3:F1048576">
+      <formula1>$X$6:$X$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G3:G1048576">
-      <formula1>$T$3:$T$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L3:L1048576">
+      <formula1>$Y$3:$Y$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F212">
-      <formula1>$R$3:$R$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K212">
+      <formula1>$W$3:$W$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>类型type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,11 +175,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑实验课详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/prototype/jsp/experiment/experimentpaper/paperinfo?id=${item.id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
+    <t>/prototype/jsp/experiment/experimentpaper/editpaper?id=${item.id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;c:forEach items="${pageInfo.data}" var="item"&gt;
+                                            &lt;tr bgcolor="#ffffff" align="center" class="STYLE19"&gt;
+                                                &lt;td height="20"&gt;&lt;input name="idcheckbox" type="checkbox"
+                                                                       value="${item.id}" onclick="checkOne('listForm', 'idcheckbox')"/&gt;
+                                                &lt;/td&gt;
+                                                &lt;td&gt;${item.id}&lt;/td&gt;
+                                                &lt;td&gt;${item.sn}&lt;/td&gt;
+                                                &lt;td&gt;${item.name}&lt;/td&gt;
+                                                &lt;td&gt;${item.phoneNum}&lt;/td&gt;
+                                                &lt;td&gt;${item.email}&lt;/td&gt;
+                                                &lt;td&gt;${item.major.name}&lt;/td&gt;
+                                                &lt;td&gt;${item.role.name}&lt;/td&gt;
+                                                &lt;td&gt;${item.comment}&lt;/td&gt;
+                                            &lt;/tr&gt;
+                                        &lt;/c:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1实验管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1查看所有的实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,19 +735,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
@@ -710,10 +768,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -735,33 +793,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="X7" s="2" t="s">
         <v>8</v>
       </c>
@@ -996,12 +1069,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="72.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
   </si>
   <si>
     <t>类型type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,19 +217,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1.1查看所有的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentNo/experimentName/courseName/page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/myexperimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/myexperimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_left.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2条件查询实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3查看实验详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -735,19 +763,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
@@ -768,10 +796,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -795,25 +823,25 @@
     </row>
     <row r="6" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>7</v>
@@ -821,19 +849,19 @@
     </row>
     <row r="7" spans="1:25" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>8</v>
@@ -1069,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C10"/>
+  <dimension ref="A4:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1082,38 +1110,143 @@
     <col min="4" max="4" width="72.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
     </row>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="实验信息管理" sheetId="2" r:id="rId2"/>
+    <sheet name="实验报告管理" sheetId="3" r:id="rId3"/>
+    <sheet name="学期成绩评定" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,11 +258,497 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.1.3查看实验详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/paperinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    &lt;tr bgcolor="#ffffff" align="center" class="STYLE19"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        &lt;td height="20"&gt;&lt;input name="idcheckbox" type="checkbox"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                               value="${item.id}" onclick="checkOne('listForm', 'idcheckbox')"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        &lt;td&gt;${item.sn}&lt;/td&gt;</t>
+  </si>
+  <si>
     <t>1.1.2条件查询实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.3查看实验详细</t>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/paperinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myexperimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4初始化实验添加页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/toaddpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/addpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/savePaperInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentNo、experimentName、theCourse、instructor、guideBook、experimentReport、ifReported、limitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5保存试卷信息（不包含题目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5向数据库中添加题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/addtopaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开实验题添加页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6添加题目到实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idcheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/addtopaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/addQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addpaper.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtopaper.jso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/addpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment对象。Experiment中的题目list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentId、idcheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7修改实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/updatePaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myexperimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment对象，实验所包含的题目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8删除实验中的题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求出发页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addpaper.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/deleteQuestionForAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment对象、实验中的题目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.9删除实验中的题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatepaper.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/deleteQuestionForUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/experimentpaper/updatepaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/uploadreport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_left.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theCourse、experimentName、ifReport、limitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/loadreport.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/loadreport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1初始化实验报告上传界面（学生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2条件查询需要提交的实验报告（学生）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/uploadreport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/markreport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3实验报告评分页面初始化（老师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4选择要评分的实验报告（老师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/markreport.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5评分页面初始化（老师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5条件查询要找的学生（老师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNo、studentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/jsp/experiment/report/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6对实验报告评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1初始化学生选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/scorelist</t>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/scorelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_leaft.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2按班级、学号、姓名查询学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classId、studentName、studentNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3初始化评分界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/score.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usualScore、finalScore、totalGrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,6 +851,1474 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4142717</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2286000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5111451" y="2066925"/>
+          <a:ext cx="4127141" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4625100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3352698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5111451" y="4762500"/>
+          <a:ext cx="4609524" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4190342</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2752725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5159076" y="7362825"/>
+          <a:ext cx="4127141" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>187026</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3028950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4796550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3847998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5282901" y="10086975"/>
+          <a:ext cx="4609524" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3647624</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3790503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="12553950"/>
+          <a:ext cx="3609524" cy="3580953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3667125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247043</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3019092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="12696825"/>
+          <a:ext cx="4857143" cy="2666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5447644</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>3923842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="17907000"/>
+          <a:ext cx="5247619" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5247619" cy="3666667"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305425" y="22831425"/>
+          <a:ext cx="5247619" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5111451" y="4762500"/>
+          <a:ext cx="4609524" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4219048</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1276191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="1714500"/>
+          <a:ext cx="4219048" cy="1276191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4730451" y="4514850"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4730451" y="4514850"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4076191</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2971429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="5029200"/>
+          <a:ext cx="4076191" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647191</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2971429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="1714500"/>
+          <a:ext cx="4076191" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="6000750"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="10077450"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="10077450"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266085</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1647645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="10972800"/>
+          <a:ext cx="4923810" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="10077450"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="10248900"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="10420350"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4923810" cy="1438095"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="13839825"/>
+          <a:ext cx="4923810" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>551840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="13782675"/>
+          <a:ext cx="4885715" cy="3095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="13115925"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="13115925"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="17506950"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504144</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>37780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="19411950"/>
+          <a:ext cx="5447619" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="17335500"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="17506950"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="17678400"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5447619" cy="2561905"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="27051000"/>
+          <a:ext cx="5447619" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3180963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="10848975"/>
+          <a:ext cx="4885715" cy="3095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="18802350"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="18973800"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15576</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666174" cy="102"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054301" y="19145250"/>
+          <a:ext cx="666174" cy="102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5447619" cy="2561905"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="23202900"/>
+          <a:ext cx="5447619" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4133348</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2390508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="5848350"/>
+          <a:ext cx="4019048" cy="2133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4076198</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2361933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="1943100"/>
+          <a:ext cx="4019048" cy="2133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370758</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2409553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="5819775"/>
+          <a:ext cx="5742858" cy="2180953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475533</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2457178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9477375" y="1990725"/>
+          <a:ext cx="5742858" cy="2180953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161262</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="9324975"/>
+          <a:ext cx="5304762" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,7 +2610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y211"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1097,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D24"/>
+  <dimension ref="A4:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1110,161 +3065,1093 @@
     <col min="4" max="4" width="72.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="285.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>52</v>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="321.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
-        <v>44</v>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="335.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="297" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="253.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="273.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="248.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="206.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="250.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="212.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="58.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="174" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="实验信息管理" sheetId="2" r:id="rId2"/>
-    <sheet name="实验报告管理" sheetId="3" r:id="rId3"/>
-    <sheet name="学期成绩评定" sheetId="4" r:id="rId4"/>
+    <sheet name="学期成绩评定" sheetId="4" r:id="rId3"/>
+    <sheet name="实验报告管理" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="176">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,11 +485,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/jsp/experiment/report/uploadreport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>student_left.jsp</t>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1初始化学生选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/scorelist</t>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/scorelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_leaft.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2按班级、学号、姓名查询学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classId、studentName、studentNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3初始化评分界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,11 +540,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theCourse、experimentName、ifReport、limitTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
+    <t>studentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/score.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usualScore、finalScore、totalGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/courselist</t>
+  </si>
+  <si>
+    <t>1.1.1课程选择初始界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_left.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2课程选择翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/courselist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courselist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3查看课程下的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/experimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courselist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4条件查询实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -509,55 +651,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/loadreport.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/loadreport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1初始化实验报告上传界面（学生）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2条件查询需要提交的实验报告（学生）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/uploadreport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
+    <t>page、nameForSearch、ifReportForSearch、limitTimeForSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/maintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/maintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存修改内容并跳转到experimentlist页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改要发布的实验的发布状态，并刷新experimentlist页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6发布已经维护但是尚未发布的实验信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7进入实验报告查看界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page、experimentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5初始化信息维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5维护需要上传实验报告的实验信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifReported、limitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8条件查询实验报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,190 +719,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/markreport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3实验报告评分页面初始化（老师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4选择要评分的实验报告（老师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/markreport.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5评分页面初始化（老师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/list.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5条件查询要找的学生（老师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentNo、studentName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/report/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.6对实验报告评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1初始化学生选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/scorelist</t>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/scorelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_leaft.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2按班级、学号、姓名查询学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classId、studentName、studentNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3初始化评分界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/score.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usualScore、finalScore、totalGrade</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/toUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/toPublic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.9保存分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page、score[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,975 +1161,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>681750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>102</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5111451" y="4762500"/>
-          <a:ext cx="4609524" cy="819048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4219048</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1276191</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4714875" y="1714500"/>
-          <a:ext cx="4219048" cy="1276191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4730451" y="4514850"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4730451" y="4514850"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4076191</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2971429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4714875" y="5029200"/>
-          <a:ext cx="4076191" cy="2971429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647191</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2971429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9020175" y="1714500"/>
-          <a:ext cx="4076191" cy="2971429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="6000750"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="10077450"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="10077450"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266085</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1647645</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9486900" y="10972800"/>
-          <a:ext cx="4923810" cy="1438095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="10077450"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="10248900"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="10420350"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4923810" cy="1438095"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9867900" y="13839825"/>
-          <a:ext cx="4923810" cy="1438095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>551840</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>94863</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5010150" y="13782675"/>
-          <a:ext cx="4885715" cy="3095238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="13115925"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="13115925"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="17506950"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504144</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>37780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5086350" y="19411950"/>
-          <a:ext cx="5447619" cy="2561905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="17335500"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="17506950"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="17678400"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5447619" cy="2561905"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5048250" y="27051000"/>
-          <a:ext cx="5447619" cy="2561905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>513740</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3180963</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4972050" y="10848975"/>
-          <a:ext cx="4885715" cy="3095238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="18802350"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="图片 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="18973800"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666174" cy="102"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5054301" y="19145250"/>
-          <a:ext cx="666174" cy="102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5447619" cy="2561905"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="图片 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="23202900"/>
-          <a:ext cx="5447619" cy="2561905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
@@ -2310,6 +1340,343 @@
         <a:xfrm>
           <a:off x="4800600" y="9324975"/>
           <a:ext cx="5304762" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2085714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="1543050"/>
+          <a:ext cx="6123810" cy="2085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6123810" cy="2085714"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="1543050"/>
+          <a:ext cx="6123810" cy="2085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218203</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>142536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="17240250"/>
+          <a:ext cx="6980953" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>618203</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="19983450"/>
+          <a:ext cx="7380953" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323136</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>56779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="12611100"/>
+          <a:ext cx="5714286" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323136</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>56779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="8324850"/>
+          <a:ext cx="5714286" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4580953</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>37881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="29241750"/>
+          <a:ext cx="4580953" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4580953" cy="1752381"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="29241750"/>
+          <a:ext cx="4580953" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>332584</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>28363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="35461575"/>
+          <a:ext cx="6333334" cy="1695238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3608,376 +2975,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="37.75" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="56.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="297" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="253.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="273.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="248.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="206.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="250.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" ht="212.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3990,7 +2990,7 @@
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
@@ -3998,12 +2998,12 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -4014,33 +3014,33 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
@@ -4048,15 +3048,15 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
@@ -4064,89 +3064,617 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="70.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C139" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C141" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C142" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C145" t="s">
+        <v>140</v>
+      </c>
+      <c r="D145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C146" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
+        <v>136</v>
+      </c>
+      <c r="D147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C148" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C149" t="s">
+        <v>139</v>
+      </c>
+      <c r="D149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C150" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C153" t="s">
+        <v>140</v>
+      </c>
+      <c r="D153" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
+        <v>136</v>
+      </c>
+      <c r="D155" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
+        <v>137</v>
+      </c>
+      <c r="D156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
+        <v>139</v>
+      </c>
+      <c r="D157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C158" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C171" t="s">
+        <v>140</v>
+      </c>
+      <c r="D171" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C172" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
+        <v>136</v>
+      </c>
+      <c r="D173" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
+        <v>137</v>
+      </c>
+      <c r="D174" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>139</v>
+      </c>
+      <c r="D175" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B188" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C189" t="s">
+        <v>140</v>
+      </c>
+      <c r="D189" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C191" t="s">
+        <v>136</v>
+      </c>
+      <c r="D191" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C192" t="s">
+        <v>137</v>
+      </c>
+      <c r="D192" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C193" t="s">
+        <v>139</v>
+      </c>
+      <c r="D193" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C194" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -3160,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2421,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2977,7 +2977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3160,7 +3160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="实验信息管理" sheetId="2" r:id="rId2"/>
-    <sheet name="学期成绩评定" sheetId="4" r:id="rId3"/>
-    <sheet name="实验报告管理" sheetId="5" r:id="rId4"/>
+    <sheet name="学期成绩评定（未完成）" sheetId="4" r:id="rId2"/>
+    <sheet name="实验报告管理(完成)" sheetId="5" r:id="rId3"/>
+    <sheet name="实验信息管理（完成）" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="152">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,34 +210,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1实验管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1查看所有的实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentNo/experimentName/courseName/page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/myexperimentlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/myexperimentlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求发出页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,19 +226,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myexperimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1初始化学生选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/scorelist</t>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/scorelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_leaft.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2按班级、学号、姓名查询学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classId、studentName、studentNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3初始化评分界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>请求URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3查看实验详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/paperinfo</t>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/score.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,22 +329,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                                                    &lt;tr bgcolor="#ffffff" align="center" class="STYLE19"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                        &lt;td height="20"&gt;&lt;input name="idcheckbox" type="checkbox"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                               value="${item.id}" onclick="checkOne('listForm', 'idcheckbox')"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                        &lt;/td&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                        &lt;td&gt;${item.sn}&lt;/td&gt;</t>
-  </si>
-  <si>
-    <t>1.1.2条件查询实验</t>
+    <t>1.1.4评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usualScore、finalScore、totalGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/courselist</t>
+  </si>
+  <si>
+    <t>1.1.1课程选择初始界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_left.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2课程选择翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/courselist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courselist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3查看课程下的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/experimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courselist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4条件查询实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,31 +404,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>page、nameForSearch、ifReportForSearch、limitTimeForSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/maintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/maintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存修改内容并跳转到experimentlist页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改要发布的实验的发布状态，并刷新experimentlist页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6发布已经维护但是尚未发布的实验信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7进入实验报告查看界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page、experimentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5初始化信息维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5维护需要上传实验报告的实验信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifReported、limitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8条件查询实验报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/jsp/experiment/experimentpaper/paperinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myexperimentlist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4初始化实验添加页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/toaddpaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/addpaper</t>
+    <t>jsp/experiment/report/toUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/toPublic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.9保存分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page、score[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/courselist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -325,31 +520,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/jsp/experiment/experimentpaper/savePaperInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentNo、experimentName、theCourse、instructor、guideBook、experimentReport、ifReported、limitDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5保存试卷信息（不包含题目）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5向数据库中添加题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/addtopaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开实验题添加页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.6添加题目到实验</t>
+    <t>jsp/experiment/experiment/myexperimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courselist.jsp</t>
+  </si>
+  <si>
+    <t>1.1.4条件查询实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentNameForSearch、experimentNoForSearch、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,11 +555,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idcheckbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无，打开添加页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6添加实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5打开添加实验页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/toadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentNo、experimentName、guideBook、experimentReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完数据后返回myexperimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/toupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回实验对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7打开修改实验信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8修改实验信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,357 +627,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/addtopaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/addQuestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addpaper.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addtopaper.jso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/addpaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experiment对象。Experiment中的题目list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentId、idcheckbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.7修改实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/updatePaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myexperimentlist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experiment对象，实验所包含的题目列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.8删除实验中的题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求出发页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addpaper.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/deleteQuestionForAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experiment对象、实验中的题目列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.9删除实验中的题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updatepaper.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/deleteQuestionForUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/jsp/experiment/experimentpaper/updatepaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1初始化学生选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/scorelist</t>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/scorelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_leaft.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2按班级、学号、姓名查询学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classId、studentName、studentNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3初始化评分界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/score.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usualScore、finalScore、totalGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/courselist</t>
-  </si>
-  <si>
-    <t>1.1.1课程选择初始界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_left.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2课程选择翻页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/courselist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courselist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3查看课程下的实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/experimentlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courselist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4条件查询实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page、nameForSearch、ifReportForSearch、limitTimeForSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentlist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/maintain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/maintain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintain.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存修改内容并跳转到experimentlist页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改要发布的实验的发布状态，并刷新experimentlist页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentlist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.6发布已经维护但是尚未发布的实验信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.7进入实验报告查看界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page、experimentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5初始化信息维护界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5维护需要上传实验报告的实验信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifReported、limitTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.8条件查询实验报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
+    <t>update.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.9获取实验详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -727,27 +647,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jsp/experiment/report/toUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/toPublic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.9保存分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page、score[]</t>
+    <t xml:space="preserve">GET </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,6 +701,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -816,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +763,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -853,310 +784,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4142717</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2286000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5111451" y="2066925"/>
-          <a:ext cx="4127141" cy="2447925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15576</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2533650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4625100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3352698</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5111451" y="4762500"/>
-          <a:ext cx="4609524" cy="819048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>63201</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4190342</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2752725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5159076" y="7362825"/>
-          <a:ext cx="4127141" cy="2447925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>187026</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3028950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4796550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3847998</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5282901" y="10086975"/>
-          <a:ext cx="4609524" cy="819048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3647624</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3790503</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5133975" y="12553950"/>
-          <a:ext cx="3609524" cy="3580953"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3667125</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247043</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3019092</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8763000" y="12696825"/>
-          <a:ext cx="4857143" cy="2666667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5447644</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>3923842</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5295900" y="17907000"/>
-          <a:ext cx="5247619" cy="3666667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5247619" cy="3666667"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5305425" y="22831425"/>
-          <a:ext cx="5247619" cy="3666667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1351,46 +978,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>46860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2085714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4248150" y="1543050"/>
-          <a:ext cx="6123810" cy="2085714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1677,6 +1266,272 @@
         <a:xfrm>
           <a:off x="4991100" y="35461575"/>
           <a:ext cx="6333334" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5133334</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1523810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="1543050"/>
+          <a:ext cx="5133334" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>570819</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="1371600"/>
+          <a:ext cx="5447619" cy="1457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5447619" cy="1457143"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="1371600"/>
+          <a:ext cx="5447619" cy="1457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285022</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>18622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="6877050"/>
+          <a:ext cx="5828572" cy="3428572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265972</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="12001500"/>
+          <a:ext cx="5828572" cy="3428572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27962</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>123510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="23660100"/>
+          <a:ext cx="4904762" cy="2523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27962</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>123510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="19373850"/>
+          <a:ext cx="4904762" cy="2523810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2419,566 +2274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E83"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="72.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="285.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="321.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="335.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C76" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D28"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2990,20 +2289,20 @@
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -3014,49 +2313,49 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
@@ -3064,89 +2363,89 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3156,12 +2455,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D194"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3173,28 +2472,28 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -3202,49 +2501,49 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -3252,244 +2551,244 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C80" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D82" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D84" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C137" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D137" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C139" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D139" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C140" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C141" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D141" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C142" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C145" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D145" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D146" t="s">
         <v>33</v>
@@ -3497,184 +2796,184 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C147" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D147" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C148" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D148" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C149" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D149" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C150" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D150" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C153" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D153" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D154" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C155" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D155" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C156" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D156" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C157" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D157" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C158" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C171" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D171" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C173" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D173" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C174" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D174" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C175" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D175" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C176" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C189" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="D189" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D190" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C191" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D191" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C192" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D192" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C193" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="D193" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C194" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3682,4 +2981,484 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C102" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C110" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="8"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>130</v>
+      </c>
+      <c r="D135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>125</v>
+      </c>
+      <c r="D140" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C141" t="s">
+        <v>127</v>
+      </c>
+      <c r="D141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C142" t="s">
+        <v>129</v>
+      </c>
+      <c r="D142" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="学期成绩评定（未完成）" sheetId="4" r:id="rId2"/>
-    <sheet name="实验报告管理(完成)" sheetId="5" r:id="rId3"/>
-    <sheet name="实验信息管理（完成）" sheetId="6" r:id="rId4"/>
+    <sheet name="实验报告管理(完成)" sheetId="5" r:id="rId2"/>
+    <sheet name="实验信息管理（完成）" sheetId="6" r:id="rId3"/>
+    <sheet name="学期成绩评定（完成）" sheetId="7" r:id="rId4"/>
+    <sheet name="考试试题库管理（未完成）" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,7 +243,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1初始化学生选择页面</t>
+    <t>/prototype/jsp/experiment/achievement/scorelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/courselist</t>
+  </si>
+  <si>
+    <t>1.1.1课程选择初始界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,26 +266,398 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>teacher_left.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>返回URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2课程选择翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/courselist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courselist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3查看课程下的实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/experimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courselist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4条件查询实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page、nameForSearch、ifReportForSearch、limitTimeForSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/maintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/maintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存修改内容并跳转到experimentlist页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改要发布的实验的发布状态，并刷新experimentlist页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentlist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6发布已经维护但是尚未发布的实验信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7进入实验报告查看界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page、experimentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5初始化信息维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5维护需要上传实验报告的实验信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifReported、limitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8条件查询实验报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/toUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/report/toPublic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.9保存分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page、score[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/courselist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>返回数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/myexperimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courselist.jsp</t>
+  </si>
+  <si>
+    <t>1.1.4条件查询实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentNameForSearch、experimentNoForSearch、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无，打开添加页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6添加实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5打开添加实验页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/toadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experimentNo、experimentName、guideBook、experimentReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完数据后返回myexperimentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/toupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回实验对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7打开修改实验信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8修改实验信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.9获取实验详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1成绩评定课程选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/courselist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_left.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2成绩评定课程选择界面翻页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/courselist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3进入学生名单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/prototype/jsp/experiment/achievement/scorelist</t>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/scorelist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher_leaft.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2按班级、学号、姓名查询学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseId（课程，即虚拟班级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scorelist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4条件查询学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNo、studentName、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/prototype/jsp/experiment/achievement/toscore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5进入评分界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6实验得分列表翻页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,74 +665,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>classId、studentName、studentNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3初始化评分界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/prototype/jsp/experiment/achievement/score.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usualScore、finalScore、totalGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/courselist</t>
-  </si>
-  <si>
-    <t>1.1.1课程选择初始界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
+    <t>studentId、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7实验评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentId、usualScore、finalScore、proportion、totalScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/experiment/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的是page.js中的方法，返回myexperimentlist.jsp页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1初始化试题库界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,47 +713,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2课程选择翻页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/courselist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courselist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3查看课程下的实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/experimentlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courselist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4条件查询实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
+    <t>jsp/experiment/question/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2条件查询试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page中的toFind方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -404,154 +733,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>page、nameForSearch、ifReportForSearch、limitTimeForSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentlist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/maintain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/maintain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintain.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存修改内容并跳转到experimentlist页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改要发布的实验的发布状态，并刷新experimentlist页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentlist.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.6发布已经维护但是尚未发布的实验信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.7进入实验报告查看界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page、experimentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5初始化信息维护界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5维护需要上传实验报告的实验信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifReported、limitTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.8条件查询实验报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/toUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/report/toPublic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.9保存分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentNameForSearch、studentNoForSearch、ifUploadedForSearch、page、score[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/experiment/courselist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/experiment/myexperimentlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courselist.jsp</t>
-  </si>
-  <si>
-    <t>1.1.4条件查询实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentNameForSearch、experimentNoForSearch、page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
+    <t>questionNo、questionType、theCourse、page、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/toadd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,103 +745,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求发出页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无，打开添加页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.6添加实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5打开添加实验页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/experiment/toadd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/experiment/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>experimentNo、experimentName、guideBook、experimentReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加完数据后返回myexperimentlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/experiment/toupdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回实验对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.7打开修改实验信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.8修改实验信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/experiment/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.9获取实验详细信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/experiment/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GET </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp/experiment/experiment/detail</t>
+    <t>jsp/experiment/question/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4添加试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3初始化试题界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionSn、theCourse、questionType、difficulty、questionContent、answerContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,14 +870,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,201 +894,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4133348</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2390508</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914900" y="5848350"/>
-          <a:ext cx="4019048" cy="2133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4076198</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2361933</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857750" y="1943100"/>
-          <a:ext cx="4019048" cy="2133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>370758</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2409553</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9372600" y="5819775"/>
-          <a:ext cx="5742858" cy="2180953"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>475533</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2457178</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9477375" y="1990725"/>
-          <a:ext cx="5742858" cy="2180953"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161262</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75914</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="9324975"/>
-          <a:ext cx="5304762" cy="2285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1315,7 +1230,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1540,6 +1455,647 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189656</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="1200150"/>
+          <a:ext cx="6752381" cy="1561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6752381" cy="1561905"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="1200150"/>
+          <a:ext cx="6752381" cy="1561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313466</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="7200900"/>
+          <a:ext cx="6876191" cy="2352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6876191" cy="2352381"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="7200900"/>
+          <a:ext cx="6876191" cy="2352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294675</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>18812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="14401800"/>
+          <a:ext cx="4800000" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>284895</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="16544925"/>
+          <a:ext cx="6847620" cy="5085715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294675</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>18812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="23145750"/>
+          <a:ext cx="4800000" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>284895</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="25203150"/>
+          <a:ext cx="6847620" cy="5085715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237266</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>94956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="32204025"/>
+          <a:ext cx="6876191" cy="2352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94590</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>104740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="21774150"/>
+          <a:ext cx="5285715" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94590</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>161890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="30403800"/>
+          <a:ext cx="5285715" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142138</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="1200150"/>
+          <a:ext cx="5895238" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>675558</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="4286250"/>
+          <a:ext cx="5742858" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142138</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="8743950"/>
+          <a:ext cx="5895238" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>675558</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>123445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="11830050"/>
+          <a:ext cx="5742858" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113653</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>28022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="16344900"/>
+          <a:ext cx="5180953" cy="4428572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5180953" cy="4428572"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="16344900"/>
+          <a:ext cx="5180953" cy="4428572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1852,27 +2408,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2274,193 +2830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D28"/>
-  <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="39.125" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="58.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="174" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2472,15 +2845,15 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
@@ -2493,7 +2866,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -2501,18 +2874,18 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2522,15 +2895,15 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
@@ -2538,12 +2911,12 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -2551,18 +2924,18 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
@@ -2572,15 +2945,15 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
@@ -2588,31 +2961,31 @@
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
@@ -2622,15 +2995,15 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
@@ -2638,31 +3011,31 @@
         <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
@@ -2672,15 +3045,15 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C80" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
@@ -2688,31 +3061,31 @@
         <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C82" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
@@ -2722,15 +3095,15 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C137" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D137" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.15">
@@ -2738,31 +3111,31 @@
         <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C139" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D139" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C140" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D140" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C141" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D141" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
@@ -2770,20 +3143,20 @@
         <v>44</v>
       </c>
       <c r="D142" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C145" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D145" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
@@ -2796,26 +3169,26 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C147" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D147" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C148" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D148" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C149" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D149" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.15">
@@ -2823,20 +3196,20 @@
         <v>44</v>
       </c>
       <c r="D150" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C153" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D153" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.15">
@@ -2844,31 +3217,31 @@
         <v>39</v>
       </c>
       <c r="D154" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C155" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D155" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C156" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" t="s">
         <v>74</v>
-      </c>
-      <c r="D156" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C157" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D157" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.15">
@@ -2878,15 +3251,15 @@
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C171" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D171" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.15">
@@ -2894,31 +3267,31 @@
         <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C173" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D173" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C174" t="s">
+        <v>52</v>
+      </c>
+      <c r="D174" t="s">
         <v>74</v>
-      </c>
-      <c r="D174" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C175" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D175" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.15">
@@ -2928,15 +3301,15 @@
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C189" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D189" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.15">
@@ -2944,31 +3317,31 @@
         <v>39</v>
       </c>
       <c r="D190" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C191" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D191" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C192" t="s">
+        <v>52</v>
+      </c>
+      <c r="D192" t="s">
         <v>74</v>
-      </c>
-      <c r="D192" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="193" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C193" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D193" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="3:4" x14ac:dyDescent="0.15">
@@ -2983,12 +3356,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D144"/>
+  <dimension ref="A3:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3000,7 +3373,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
@@ -3008,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
@@ -3040,17 +3413,17 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -3058,7 +3431,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
@@ -3066,7 +3439,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
@@ -3074,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -3082,7 +3455,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
@@ -3090,17 +3463,17 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
@@ -3108,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
@@ -3116,7 +3489,7 @@
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
@@ -3124,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
@@ -3132,7 +3505,7 @@
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
@@ -3140,17 +3513,17 @@
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.15">
@@ -3158,7 +3531,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.15">
@@ -3166,7 +3539,7 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.15">
@@ -3174,7 +3547,7 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.15">
@@ -3182,7 +3555,7 @@
         <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.15">
@@ -3190,44 +3563,44 @@
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C93" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C94" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
         <v>45</v>
@@ -3235,10 +3608,10 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C96" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
@@ -3246,50 +3619,50 @@
         <v>44</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C102" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C103" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C104" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
@@ -3297,23 +3670,23 @@
         <v>44</v>
       </c>
       <c r="D105" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C109" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
         <v>33</v>
@@ -3321,7 +3694,7 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C110" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D110" t="s">
         <v>43</v>
@@ -3329,7 +3702,7 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C111" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
@@ -3337,10 +3710,10 @@
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C112" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D112" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -3348,58 +3721,58 @@
         <v>44</v>
       </c>
       <c r="D113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="116" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="117" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="118" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="8"/>
+      <c r="A119" s="7"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C131" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D131" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C132" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D132" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C133" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D133" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C134" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D134" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C135" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D135" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.15">
@@ -3409,50 +3782,61 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C139" t="s">
+        <v>102</v>
+      </c>
+      <c r="D139" t="s">
         <v>124</v>
-      </c>
-      <c r="D139" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="D140" t="s">
         <v>125</v>
-      </c>
-      <c r="D140" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C141" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C142" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D142" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C143" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D143" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C144" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>160</v>
+      </c>
+      <c r="D161" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3461,4 +3845,601 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D187"/>
+  <sheetViews>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="50.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C132" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>134</v>
+      </c>
+      <c r="D134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>135</v>
+      </c>
+      <c r="D135" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B181" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C182" t="s">
+        <v>141</v>
+      </c>
+      <c r="D182" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C183" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C185" t="s">
+        <v>134</v>
+      </c>
+      <c r="D185" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C186" t="s">
+        <v>135</v>
+      </c>
+      <c r="D186" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C187" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C129" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C130" t="s">
+        <v>42</v>
+      </c>
+      <c r="D130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C131" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="实验报告管理(完成)" sheetId="5" r:id="rId2"/>
     <sheet name="实验信息管理（完成）" sheetId="6" r:id="rId3"/>
     <sheet name="学期成绩评定（完成）" sheetId="7" r:id="rId4"/>
-    <sheet name="考试试题库管理（未完成）" sheetId="8" r:id="rId5"/>
+    <sheet name="考试试题库管理（完成）" sheetId="8" r:id="rId5"/>
+    <sheet name="考试试卷管理（未完成）" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="197">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,15 +758,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回list界面，显示question列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5初始化试题修改界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回question对象，并显示对应的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6修改试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>questionSn、theCourse、questionType、difficulty、questionContent、answerContent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>question_id、questionSn、theCourse、questionType、difficulty、questionContent、answerContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jsp/experiment/question/list</t>
+    <t>在数据库中添加完对象后返回list界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7查看试题的详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8删除题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除目标并刷新页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toDelete（'listForm'）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2063,39 +2136,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5180953" cy="4428572"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="16344900"/>
-          <a:ext cx="5180953" cy="4428572"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4221,10 +4261,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E131"/>
+  <dimension ref="B2:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4405,7 +4445,7 @@
         <v>39</v>
       </c>
       <c r="D127" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.15">
@@ -4413,10 +4453,10 @@
         <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C129" t="s">
         <v>40</v>
       </c>
@@ -4424,17 +4464,235 @@
         <v>168</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C130" t="s">
         <v>42</v>
       </c>
       <c r="D130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C131" t="s">
         <v>44</v>
+      </c>
+      <c r="D131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C139" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C140" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C148" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C149" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C150" t="s">
+        <v>44</v>
+      </c>
+      <c r="D150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C158" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C159" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>195</v>
+      </c>
+      <c r="E162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C163" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C165" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C166" t="s">
+        <v>42</v>
+      </c>
+      <c r="D166" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C167" t="s">
+        <v>44</v>
+      </c>
+      <c r="D167" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4442,4 +4700,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="208">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,6 +839,50 @@
   </si>
   <si>
     <t>toDelete（'listForm'）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/paper/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1初始化试卷查询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2条件查询试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/paper/addpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/addpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paperNo、theCourse、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3添加试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4保存试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paperNo、paperName、theCourse、proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addpaper.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2139,6 +2183,229 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266011</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1371600"/>
+          <a:ext cx="5514286" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5514286" cy="2809524"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1371600"/>
+          <a:ext cx="5514286" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513716</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>18919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="4286250"/>
+          <a:ext cx="5076191" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513716</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>18919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="9258300"/>
+          <a:ext cx="5076191" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485144</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>75998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="11487150"/>
+          <a:ext cx="5047619" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5047619" cy="1619048"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="11487150"/>
+          <a:ext cx="5047619" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -4263,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E167"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4704,15 +4971,222 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="59.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="236">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -854,7 +854,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jsp/experiment/paper/addpaper</t>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paperNo、theCourse、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3添加试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/paper/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paperName、theCourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/paper/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -862,27 +890,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.1.4保存试卷并打开问题添加页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入的paper对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/laboratory/jsp/res/paper/addtopaper?question_id=${item.id}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/addtopaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开addtopaper界面，并初始化试题选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5弹出问题添加窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6添加试题到试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addQuestion?questionId="+id+"&amp;items=" + selectedItems;</t>
+  </si>
+  <si>
+    <t>idcheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>paperNo、theCourse、page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3添加试卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4保存试卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paperNo、paperName、theCourse、proportion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addpaper.jsp</t>
+    <t>addtopaper.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开list界面，并初始化试卷选择界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper对象，初始化编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/paper/editpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/editpaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8编辑试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7初始化试卷编辑界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paperName、theCourse、idcheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editpaper.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回list界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/paper/paperinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/paperinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper对象、所含题目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.9 查看详细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2188,15 +2299,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266011</xdr:colOff>
+      <xdr:colOff>313636</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>66324</xdr:rowOff>
+      <xdr:rowOff>104424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2213,7 +2324,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="1371600"/>
+          <a:off x="4924425" y="1409700"/>
           <a:ext cx="5514286" cy="2809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2340,14 +2451,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485144</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>75998</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4476191</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2361,7 +2472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4876800" y="11487150"/>
-          <a:ext cx="5047619" cy="1619048"/>
+          <a:ext cx="4476191" cy="2085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2370,31 +2481,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5047619" cy="1619048"/>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66021</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>28373</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="11487150"/>
-          <a:ext cx="5047619" cy="1619048"/>
+          <a:off x="4953000" y="18983325"/>
+          <a:ext cx="5238096" cy="1619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2402,7 +2518,425 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180297</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>75741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="22288500"/>
+          <a:ext cx="5428572" cy="3676191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504108</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>113955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="15868650"/>
+          <a:ext cx="5742858" cy="2761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>494583</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>132991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="26060400"/>
+          <a:ext cx="5742858" cy="2876191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266011</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>66324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="30689550"/>
+          <a:ext cx="5514286" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513716</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>18919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="33604200"/>
+          <a:ext cx="5076191" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>113544</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>151846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="36175950"/>
+          <a:ext cx="6047619" cy="4438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332592</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>56822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="40633650"/>
+          <a:ext cx="6266667" cy="2628572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313636</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>66324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="44748450"/>
+          <a:ext cx="5514286" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>513716</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>152269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="47625000"/>
+          <a:ext cx="5076191" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532592</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>75462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="50234850"/>
+          <a:ext cx="6466667" cy="5904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>675535</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>66324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="56235600"/>
+          <a:ext cx="5923810" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4971,10 +5505,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D84"/>
+  <dimension ref="B3:D293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5052,7 +5586,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
@@ -5060,7 +5594,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
@@ -5086,7 +5620,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
@@ -5094,7 +5628,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
@@ -5105,7 +5639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
         <v>11</v>
       </c>
@@ -5113,7 +5647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>40</v>
       </c>
@@ -5121,67 +5655,335 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
         <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C79" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
         <v>6</v>
       </c>
-      <c r="D79" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C80" t="s">
+      <c r="D125" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C126" t="s">
         <v>39</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D126" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C81" t="s">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C129" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C130" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B172" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
         <v>11</v>
       </c>
-      <c r="D81" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C82" t="s">
+      <c r="D176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
         <v>40</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C178" t="s">
+        <v>42</v>
+      </c>
+      <c r="D178" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C83" t="s">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C179" t="s">
+        <v>44</v>
+      </c>
+      <c r="D179" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B205" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C207" t="s">
+        <v>39</v>
+      </c>
+      <c r="D207" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C209" t="s">
+        <v>40</v>
+      </c>
+      <c r="D209" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C210" t="s">
         <v>42</v>
       </c>
-      <c r="D83" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C84" t="s">
+      <c r="D210" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C211" t="s">
         <v>44</v>
+      </c>
+      <c r="D211" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B255" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C257" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C258" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C259" t="s">
+        <v>40</v>
+      </c>
+      <c r="D259" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C260" t="s">
+        <v>42</v>
+      </c>
+      <c r="D260" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C261" t="s">
+        <v>44</v>
+      </c>
+      <c r="D261" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B287" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C289" t="s">
+        <v>39</v>
+      </c>
+      <c r="D289" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C290" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C291" t="s">
+        <v>40</v>
+      </c>
+      <c r="D291" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C292" t="s">
+        <v>42</v>
+      </c>
+      <c r="D292" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C293" t="s">
+        <v>44</v>
+      </c>
+      <c r="D293" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -12,14 +12,14 @@
     <sheet name="实验信息管理（完成）" sheetId="6" r:id="rId3"/>
     <sheet name="学期成绩评定（完成）" sheetId="7" r:id="rId4"/>
     <sheet name="考试试题库管理（完成）" sheetId="8" r:id="rId5"/>
-    <sheet name="考试试卷管理（未完成）" sheetId="9" r:id="rId6"/>
+    <sheet name="考试试卷管理（完成）" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="247">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,6 +994,50 @@
   </si>
   <si>
     <t>1.1.9 查看详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/paper/deleteQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷编辑界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新调用页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新调用页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.20删除选中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/paper/toupdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/experiment/question/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.21删除题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的是page中toUpdate的方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5505,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D293"/>
+  <dimension ref="B3:D365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5986,6 +6030,115 @@
         <v>234</v>
       </c>
     </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B349" t="s">
+        <v>241</v>
+      </c>
+      <c r="D349" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C351" t="s">
+        <v>39</v>
+      </c>
+      <c r="D351" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C352" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C353" t="s">
+        <v>40</v>
+      </c>
+      <c r="D353" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C354" t="s">
+        <v>42</v>
+      </c>
+      <c r="D354" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C355" t="s">
+        <v>44</v>
+      </c>
+      <c r="D355" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B359" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C361" t="s">
+        <v>39</v>
+      </c>
+      <c r="D361" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C363" t="s">
+        <v>40</v>
+      </c>
+      <c r="D363" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C364" t="s">
+        <v>42</v>
+      </c>
+      <c r="D364" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C365" t="s">
+        <v>44</v>
+      </c>
+      <c r="D365" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="学期成绩评定（完成）" sheetId="7" r:id="rId4"/>
     <sheet name="考试试题库管理（完成）" sheetId="8" r:id="rId5"/>
     <sheet name="考试试卷管理（完成）" sheetId="9" r:id="rId6"/>
+    <sheet name="论坛（未完成）" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="256">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1038,6 +1039,42 @@
   </si>
   <si>
     <t>使用的是page中toUpdate的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1初始化论坛界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2984,6 +3021,239 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>646923</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1714500"/>
+          <a:ext cx="6219048" cy="704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599218</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="3771900"/>
+          <a:ext cx="6857143" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="5486400"/>
+          <a:ext cx="6800000" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>627790</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="7200900"/>
+          <a:ext cx="6885715" cy="1761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>208656</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="9086850"/>
+          <a:ext cx="7152381" cy="2028572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380085</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>56907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="11315700"/>
+          <a:ext cx="7323810" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -5551,8 +5821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D351" sqref="D351"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6144,4 +6414,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="289">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1075,6 +1075,138 @@
   </si>
   <si>
     <t>bbs/frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3进入帖子列表界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3进入帖子发布页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseId、title、content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5进入帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6回复当前帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postId、title、content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4提交发帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将该帖子的状态设置为置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.7置顶当前帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.8删除当前帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/upTop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3251,6 +3383,381 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447180</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>57036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="14744700"/>
+          <a:ext cx="3961905" cy="914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>675666</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="15773400"/>
+          <a:ext cx="4876191" cy="2238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>608999</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>95217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="19545300"/>
+          <a:ext cx="4809524" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4809524" cy="266667"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="21821775"/>
+          <a:ext cx="4809524" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351942</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>85671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="23488650"/>
+          <a:ext cx="3866667" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>199304</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>151931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="24003000"/>
+          <a:ext cx="5771429" cy="3752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351942</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>85671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="29317950"/>
+          <a:ext cx="3866667" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>199304</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>151931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="29832300"/>
+          <a:ext cx="5771429" cy="3752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323371</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>66581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="33947100"/>
+          <a:ext cx="3838096" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323371</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>66581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="27946350"/>
+          <a:ext cx="3838096" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6418,10 +6925,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D23"/>
+  <dimension ref="B5:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6531,6 +7038,362 @@
         <v>44</v>
       </c>
     </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C111" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C126" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C127" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C134" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C136" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C137" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B212" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C214" t="s">
+        <v>39</v>
+      </c>
+      <c r="D214" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C215" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C216" t="s">
+        <v>40</v>
+      </c>
+      <c r="D216" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C217" t="s">
+        <v>42</v>
+      </c>
+      <c r="D217" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C218" t="s">
+        <v>44</v>
+      </c>
+      <c r="D218" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B223" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C225" t="s">
+        <v>39</v>
+      </c>
+      <c r="D225" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C226" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C227" t="s">
+        <v>40</v>
+      </c>
+      <c r="D227" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C228" t="s">
+        <v>42</v>
+      </c>
+      <c r="D228" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C229" t="s">
+        <v>44</v>
+      </c>
+      <c r="D229" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人大实验室JSP页面列表.xlsx
+++ b/人大实验室JSP页面列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="学期成绩评定（完成）" sheetId="7" r:id="rId4"/>
     <sheet name="考试试题库管理（完成）" sheetId="8" r:id="rId5"/>
     <sheet name="考试试卷管理（完成）" sheetId="9" r:id="rId6"/>
-    <sheet name="论坛（未完成）" sheetId="10" r:id="rId7"/>
+    <sheet name="论坛（完成）" sheetId="10" r:id="rId7"/>
+    <sheet name="教学资源管理（未完成）" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="312">
   <si>
     <t>人大实验室JSP页面列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,6 +1208,98 @@
   </si>
   <si>
     <t>bbs/upTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1进入资源管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsourceName、resourceType、theCourse、page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3打开上传界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/list.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4上传资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/toUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回list界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourceName、resourceType、uploadTime、uploader、theCourse、downloadLimit、resourceFile、resourceContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/upload.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5打开编辑界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/toUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回资源对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp/res/book/update.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.6保存编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3761,6 +3854,315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151824</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="1714500"/>
+          <a:ext cx="4609524" cy="4152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>208885</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>84975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="5915025"/>
+          <a:ext cx="5323810" cy="6000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151824</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>37581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="13716000"/>
+          <a:ext cx="4609524" cy="4152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>208885</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>84975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="17916525"/>
+          <a:ext cx="5323810" cy="6000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256586</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>152167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="25374600"/>
+          <a:ext cx="4714286" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647062</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>142630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="27327225"/>
+          <a:ext cx="5104762" cy="1961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104202</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>104467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="33127950"/>
+          <a:ext cx="4590477" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256582</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>75953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="35642550"/>
+          <a:ext cx="4742857" cy="1980953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -6329,7 +6731,7 @@
   <dimension ref="B3:D365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6927,8 +7329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7399,4 +7801,335 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D230"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C145" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C149" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B174" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>39</v>
+      </c>
+      <c r="D176" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C179" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C180" t="s">
+        <v>44</v>
+      </c>
+      <c r="D180" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B184" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C186" t="s">
+        <v>39</v>
+      </c>
+      <c r="D186" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C187" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C188" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C189" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C190" t="s">
+        <v>44</v>
+      </c>
+      <c r="D190" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B224" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C226" t="s">
+        <v>39</v>
+      </c>
+      <c r="D226" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C227" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C228" t="s">
+        <v>40</v>
+      </c>
+      <c r="D228" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C229" t="s">
+        <v>42</v>
+      </c>
+      <c r="D229" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C230" t="s">
+        <v>44</v>
+      </c>
+      <c r="D230" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>